--- a/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
+++ b/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>建信中证500指数增强C</t>
   </si>
   <si>
+    <t>41.69</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
     <t>84.44</t>
   </si>
   <si>
     <t>0.94</t>
+  </si>
+  <si>
+    <t>0.3919</t>
+  </si>
+  <si>
+    <t>0.0095</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
+++ b/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>000478</t>
-  </si>
-  <si>
-    <t>005633</t>
-  </si>
-  <si>
-    <t>建信中证500指数增强A</t>
-  </si>
-  <si>
-    <t>建信中证500指数增强C</t>
-  </si>
-  <si>
-    <t>41.69</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>84.44</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>0.3919</t>
-  </si>
-  <si>
-    <t>0.0095</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,2849 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>261.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>115.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6293</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9235</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>391.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8991</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4178</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2713</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001811</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0630</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1540</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5436</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3369</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2979</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005765</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>48.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
+++ b/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3291,4 +3292,4312 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>235.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.2186</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1468</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001811</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>475.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5163</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4909</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4205</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2682</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0664</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0425</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5159</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3760</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>54.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3424</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1587</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010483</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德启道混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1417</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9525</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8208</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8160</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6874</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6666</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6432</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5931</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011275</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银施罗德成长动力一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5928</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5909</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5638</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5574</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>32.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5275</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5202</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5054</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4800</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005765</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4211</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3914</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2735</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>32.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>690006</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银信用双利债券 - A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011276</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>交银施罗德成长动力一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>690206</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>民生加银信用双利债券 - C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
+++ b/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7600,4 +7601,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>112</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
+++ b/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7609,7 +7610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7620,17 +7621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7640,14 +7661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>112</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.55</v>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7656,14 +7699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.89</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>545.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7672,13 +7737,1541 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5652</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>112</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
+++ b/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9186,7 +9187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9197,17 +9198,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9217,14 +9238,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>9.630000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -9233,14 +9328,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>64.55</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -9249,14 +9344,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D4" t="n">
-        <v>35.89</v>
+        <v>64.55</v>
       </c>
     </row>
     <row r="5">
@@ -9265,13 +9360,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
+++ b/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9281,7 +9282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9292,17 +9293,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9312,14 +9333,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -9328,14 +9371,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.630000000000001</v>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -9344,14 +9409,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>112</v>
-      </c>
-      <c r="D4" t="n">
-        <v>64.55</v>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -9360,14 +9447,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.89</v>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -9376,13 +9485,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>112</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
+++ b/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>9.630000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>64.55</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D6" t="n">
-        <v>35.89</v>
+        <v>64.55</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>70</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35.89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -583,6 +600,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1132,7 +1319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1226,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2802,7 +2989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7110,7 +7297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9826,7 +10013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
+++ b/数据整理/stocks/A股/深证主板/000009-中国宝安.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>9.630000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>64.55</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D7" t="n">
-        <v>35.89</v>
+        <v>64.55</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>70</v>
+      </c>
+      <c r="D8" t="n">
+        <v>35.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1319,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +1638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2989,7 +3214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7297,7 +7522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10013,7 +10238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
